--- a/PROGRAMACION/BASE DE DATOS/nomalcompras.xlsx
+++ b/PROGRAMACION/BASE DE DATOS/nomalcompras.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Categoria_producto</t>
   </si>
@@ -350,13 +350,31 @@
     <t>Lorenzo palacios</t>
   </si>
   <si>
-    <t>atendido</t>
-  </si>
-  <si>
     <t>cod_solicitud_cotiz</t>
   </si>
   <si>
     <t>precio</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>Cod_detalle</t>
+  </si>
+  <si>
+    <t>desaprovado</t>
+  </si>
+  <si>
+    <t>aprobado</t>
   </si>
 </sst>
 </file>
@@ -486,20 +504,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,9 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,12 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,13 +539,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,6 +581,340 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3418416" y="518583"/>
+          <a:ext cx="1820334" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10276417" y="635000"/>
+          <a:ext cx="1111250" cy="84667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17949333" y="698500"/>
+          <a:ext cx="1598084" cy="201083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1820333</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2529417" y="1312333"/>
+          <a:ext cx="2688166" cy="793750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1926167</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3196167" y="3344333"/>
+          <a:ext cx="3968750" cy="772584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1788583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="2455333"/>
+          <a:ext cx="899583" cy="10584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="3143250"/>
+          <a:ext cx="7069667" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,7 +1183,7 @@
   <dimension ref="A2:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,8 +1191,8 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -861,567 +1215,635 @@
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="14"/>
-      <c r="P3" s="19" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>101</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>101</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>70</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <v>170</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>102</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>101</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <v>100</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="13">
         <v>200</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>201</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>102</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>3000</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="13">
         <v>5000</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>202</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>102</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>1000</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <v>3000</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>301</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>201</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>20</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <v>100</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <v>302</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>201</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>40</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="13">
         <v>100</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>202</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>30</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <v>70</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="14"/>
-      <c r="I12" s="9">
+      <c r="B12" s="27"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="6">
         <v>202</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="13">
         <v>10</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="13">
         <v>20</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="9">
+      <c r="F13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6">
         <v>301</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="13">
         <v>10</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="13">
         <v>30</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>101</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6">
+        <v>301</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="13">
+        <v>100</v>
+      </c>
+      <c r="L14" s="13">
+        <v>300</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>202</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6">
+        <v>302</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="13">
+        <v>50</v>
+      </c>
+      <c r="L15" s="13">
+        <v>100</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>101</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="8">
+        <v>302</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="14">
+        <v>10</v>
+      </c>
+      <c r="L16" s="14">
+        <v>30</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>301</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="9">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="I14" s="9">
-        <v>301</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="17">
-        <v>100</v>
-      </c>
-      <c r="L14" s="17">
-        <v>300</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>202</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="10">
-        <v>30</v>
-      </c>
-      <c r="I15" s="9">
-        <v>302</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="17">
-        <v>50</v>
-      </c>
-      <c r="L15" s="17">
-        <v>100</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>101</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="10">
-        <v>100</v>
-      </c>
-      <c r="I16" s="11">
-        <v>302</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="18">
-        <v>10</v>
-      </c>
-      <c r="L16" s="18">
-        <v>30</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>301</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="12">
-        <v>150</v>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="F20" s="19" t="s">
+      <c r="C20" s="24"/>
+      <c r="F20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="1" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="10"/>
+      <c r="N20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="Q21" t="s">
@@ -1450,29 +1872,26 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="20">
         <v>43497</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="20">
         <v>43516</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="N22" t="s">
-        <v>72</v>
       </c>
       <c r="O22" t="s">
         <v>90</v>
@@ -1480,10 +1899,10 @@
       <c r="P22" t="s">
         <v>94</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>43498</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>43500</v>
       </c>
       <c r="S22" t="s">
@@ -1492,7 +1911,7 @@
       <c r="T22" t="s">
         <v>99</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="3">
         <v>43515</v>
       </c>
       <c r="V22" t="s">
@@ -1502,33 +1921,30 @@
         <v>104</v>
       </c>
       <c r="X22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="21">
         <v>43525</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="21">
         <v>43545</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="N23" t="s">
-        <v>72</v>
       </c>
       <c r="O23" t="s">
         <v>91</v>
@@ -1536,10 +1952,10 @@
       <c r="P23" t="s">
         <v>95</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>43498</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>43500</v>
       </c>
       <c r="S23" t="s">
@@ -1548,7 +1964,7 @@
       <c r="T23" t="s">
         <v>100</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="3">
         <v>43516</v>
       </c>
       <c r="V23" t="s">
@@ -1558,23 +1974,20 @@
         <v>105</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N24" t="s">
-        <v>72</v>
-      </c>
       <c r="O24" t="s">
         <v>92</v>
       </c>
       <c r="P24" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>43498</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>43500</v>
       </c>
       <c r="S24" t="s">
@@ -1583,7 +1996,7 @@
       <c r="T24" t="s">
         <v>101</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>43517</v>
       </c>
       <c r="V24" t="s">
@@ -1593,23 +2006,20 @@
         <v>106</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N25" t="s">
-        <v>72</v>
-      </c>
       <c r="O25" t="s">
         <v>93</v>
       </c>
       <c r="P25" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>43498</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>43500</v>
       </c>
       <c r="S25" t="s">
@@ -1618,7 +2028,7 @@
       <c r="T25" t="s">
         <v>102</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <v>43518</v>
       </c>
       <c r="V25" t="s">
@@ -1628,7 +2038,7 @@
         <v>107</v>
       </c>
       <c r="X25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1643,5 +2053,6 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>